--- a/static/excel/Daniel Wahyudi -IT-2024-10-27-2024-11-26.xlsx
+++ b/static/excel/Daniel Wahyudi -IT-2024-10-27-2024-11-26.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:X1"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,84 +475,974 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>jam_masuk</t>
+          <t>masuk</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>jam_pulang</t>
+          <t>keluar</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>masuk</t>
+          <t>kembali</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>keluar</t>
+          <t>pulang</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>kembali</t>
+          <t>masuk_b</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>pulang</t>
+          <t>keluar_b</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>masuk_b</t>
+          <t>kembali_b</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>keluar_b</t>
+          <t>pulang_b</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>kembali_b</t>
+          <t>total_jam</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>pulang_b</t>
+          <t>tj</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>total_jam</t>
+          <t>ket</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>tj</t>
+          <t>sln</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>ket</t>
+          <t>kehadiran</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sln</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>kehadiran</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>ln</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27-10-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Minggu</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>07:58:58</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OFF, </t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12:08:53</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>13:10:34</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>17:08:02</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29-10-2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>05:04:22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12:11:58</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12:39:51</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>18:25:01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30-10-2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rabu</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>05:03:02</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>18:04:41</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31-10-2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kamis</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>07:52:56</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>12:14:49</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>13:17:10</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16:55:05</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01-11-2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jumat</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>07:57:45</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12:10:59</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>13:00:41</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16:58:13</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>02-11-2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sabtu</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>07:57:31</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12:08:05</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12:55:34</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16:11:54</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>04-11-2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Senin</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>07:59:20</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12:06:17</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12:55:11</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16:50:33</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05-11-2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Selasa</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Wahyudi </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10254</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>201009</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>IT - None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>07:58:50</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
